--- a/smartstore/category_keyword_20210420.xlsx
+++ b/smartstore/category_keyword_20210420.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aodrl\Desktop\smartstore\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aodrl\Desktop\Project\CMW_V2\smartstore\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76DE60CB-AEE4-4D02-A732-9B148C89A09D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01AB496F-0F3B-4A34-AAC9-6C46ADB317C6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B7495B5B-E5BD-48B5-A00F-01C0CD14CAFE}"/>
   </bookViews>
@@ -24,6 +24,9 @@
     <sheet name="여행티슈" sheetId="5" r:id="rId9"/>
     <sheet name="키친타월" sheetId="7" r:id="rId10"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'롤화장지 (2)'!$A$1:$S$60</definedName>
+  </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -34,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1137" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1137" uniqueCount="203">
   <si>
     <t>O</t>
   </si>
@@ -650,10 +653,6 @@
   </si>
   <si>
     <t>세부키워드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>다의성 키워드</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -717,7 +716,7 @@
       <charset val="129"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -737,6 +736,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -770,7 +775,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -814,6 +819,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -1128,10 +1135,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7B33CA8-668E-4B09-B47C-8FC1B9BD5957}">
-  <dimension ref="A1:S68"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:S60"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="S20" sqref="S20"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K73" sqref="K73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1216,11 +1224,11 @@
         <v>1650</v>
       </c>
       <c r="C2" s="10">
-        <v>7360</v>
+        <v>7380</v>
       </c>
       <c r="D2" s="10">
-        <f>B2+C2</f>
-        <v>9010</v>
+        <f t="shared" ref="D2:D11" si="0">B2+C2</f>
+        <v>9030</v>
       </c>
       <c r="E2" s="1">
         <v>6.3</v>
@@ -1235,13 +1243,13 @@
         <v>2.37</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="J2" s="10">
         <v>15</v>
       </c>
       <c r="K2" s="10">
-        <v>1979</v>
+        <v>1988</v>
       </c>
       <c r="L2" s="1">
         <v>0.22</v>
@@ -1268,7 +1276,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="3" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A3" s="16" t="s">
         <v>101</v>
       </c>
@@ -1279,7 +1287,7 @@
         <v>2540</v>
       </c>
       <c r="D3" s="10">
-        <f>B3+C3</f>
+        <f t="shared" si="0"/>
         <v>2840</v>
       </c>
       <c r="E3" s="1">
@@ -1333,14 +1341,14 @@
         <v>116</v>
       </c>
       <c r="B4" s="10">
-        <v>340</v>
+        <v>350</v>
       </c>
       <c r="C4" s="10">
         <v>2340</v>
       </c>
       <c r="D4" s="10">
-        <f>B4+C4</f>
-        <v>2680</v>
+        <f t="shared" si="0"/>
+        <v>2690</v>
       </c>
       <c r="E4" s="1">
         <v>4</v>
@@ -1361,7 +1369,7 @@
         <v>12</v>
       </c>
       <c r="K4" s="10">
-        <v>4113</v>
+        <v>4110</v>
       </c>
       <c r="L4" s="1">
         <v>1.53</v>
@@ -1396,11 +1404,11 @@
         <v>360</v>
       </c>
       <c r="C5" s="10">
-        <v>1900</v>
+        <v>1860</v>
       </c>
       <c r="D5" s="10">
-        <f>B5+C5</f>
-        <v>2260</v>
+        <f t="shared" si="0"/>
+        <v>2220</v>
       </c>
       <c r="E5" s="1">
         <v>3</v>
@@ -1415,16 +1423,16 @@
         <v>0.12</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="J5" s="10">
         <v>14</v>
       </c>
       <c r="K5" s="10">
-        <v>3111</v>
+        <v>3106</v>
       </c>
       <c r="L5" s="1">
-        <v>1.38</v>
+        <v>1.4</v>
       </c>
       <c r="M5" s="10">
         <v>6865</v>
@@ -1453,14 +1461,14 @@
         <v>58</v>
       </c>
       <c r="B6" s="10">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="C6" s="10">
-        <v>1260</v>
+        <v>1280</v>
       </c>
       <c r="D6" s="10">
-        <f>B6+C6</f>
-        <v>1380</v>
+        <f t="shared" si="0"/>
+        <v>1410</v>
       </c>
       <c r="E6" s="1">
         <v>0.3</v>
@@ -1481,10 +1489,10 @@
         <v>15</v>
       </c>
       <c r="K6" s="10">
-        <v>2247</v>
+        <v>2259</v>
       </c>
       <c r="L6" s="1">
-        <v>1.63</v>
+        <v>1.6</v>
       </c>
       <c r="M6" s="10">
         <v>48170</v>
@@ -1513,38 +1521,38 @@
         <v>112</v>
       </c>
       <c r="B7" s="10">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="C7" s="10">
-        <v>1260</v>
+        <v>380</v>
       </c>
       <c r="D7" s="10">
-        <f>B7+C7</f>
-        <v>1380</v>
+        <f t="shared" si="0"/>
+        <v>440</v>
       </c>
       <c r="E7" s="1">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="F7" s="1">
-        <v>35.200000000000003</v>
+        <v>7.3</v>
       </c>
       <c r="G7" s="1">
-        <v>0.23</v>
+        <v>0.38</v>
       </c>
       <c r="H7" s="1">
-        <v>2.96</v>
+        <v>2.08</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="J7" s="10">
         <v>15</v>
       </c>
       <c r="K7" s="10">
-        <v>2247</v>
+        <v>2259</v>
       </c>
       <c r="L7" s="1">
-        <v>1.63</v>
+        <v>5.13</v>
       </c>
       <c r="M7" s="10">
         <v>10723</v>
@@ -1568,7 +1576,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="8" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8" s="17" t="s">
         <v>105</v>
       </c>
@@ -1579,7 +1587,7 @@
         <v>950</v>
       </c>
       <c r="D8" s="10">
-        <f>B8+C8</f>
+        <f t="shared" si="0"/>
         <v>1180</v>
       </c>
       <c r="E8" s="1">
@@ -1595,7 +1603,7 @@
         <v>1.94</v>
       </c>
       <c r="I8" s="18" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="J8" s="10">
         <v>15</v>
@@ -1628,7 +1636,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="9" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A9" s="16" t="s">
         <v>104</v>
       </c>
@@ -1639,7 +1647,7 @@
         <v>810</v>
       </c>
       <c r="D9" s="10">
-        <f>B9+C9</f>
+        <f t="shared" si="0"/>
         <v>1080</v>
       </c>
       <c r="E9" s="1">
@@ -1655,7 +1663,7 @@
         <v>0.38</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="J9" s="10">
         <v>15</v>
@@ -1696,11 +1704,11 @@
         <v>130</v>
       </c>
       <c r="C10" s="10">
-        <v>830</v>
+        <v>840</v>
       </c>
       <c r="D10" s="10">
-        <f>B10+C10</f>
-        <v>960</v>
+        <f t="shared" si="0"/>
+        <v>970</v>
       </c>
       <c r="E10" s="1">
         <v>0.5</v>
@@ -1715,16 +1723,16 @@
         <v>0.24</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="J10" s="10">
         <v>15</v>
       </c>
       <c r="K10" s="10">
-        <v>3434</v>
+        <v>3445</v>
       </c>
       <c r="L10" s="1">
-        <v>3.58</v>
+        <v>3.55</v>
       </c>
       <c r="M10" s="10">
         <v>42076</v>
@@ -1736,7 +1744,7 @@
         <v>0</v>
       </c>
       <c r="P10" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q10" s="10">
         <v>520</v>
@@ -1753,14 +1761,14 @@
         <v>111</v>
       </c>
       <c r="B11" s="10">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="C11" s="10">
-        <v>560</v>
+        <v>540</v>
       </c>
       <c r="D11" s="10">
-        <f>B11+C11</f>
-        <v>620</v>
+        <f t="shared" si="0"/>
+        <v>610</v>
       </c>
       <c r="E11" s="1">
         <v>1.3</v>
@@ -1781,10 +1789,10 @@
         <v>3</v>
       </c>
       <c r="K11" s="10">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="L11" s="1">
-        <v>0.74</v>
+        <v>0.75</v>
       </c>
       <c r="M11" s="10">
         <v>28680</v>
@@ -1796,7 +1804,7 @@
         <v>0</v>
       </c>
       <c r="P11" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q11" s="10">
         <v>100</v>
@@ -1808,54 +1816,148 @@
         <v>196</v>
       </c>
     </row>
-    <row r="12" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="10"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="10"/>
-      <c r="K12" s="10"/>
-      <c r="M12" s="10"/>
-      <c r="O12" s="2"/>
-      <c r="Q12" s="10"/>
-      <c r="R12" s="10"/>
-    </row>
-    <row r="13" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="10"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="10"/>
-      <c r="K13" s="10"/>
-      <c r="M13" s="10"/>
-      <c r="O13" s="2"/>
-      <c r="Q13" s="10"/>
-      <c r="R13" s="10"/>
-    </row>
-    <row r="14" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="7" t="s">
+    <row r="12" spans="1:19" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="19" t="s">
         <v>144</v>
       </c>
+      <c r="B12" s="10">
+        <v>1020</v>
+      </c>
+      <c r="C12" s="10">
+        <v>15500</v>
+      </c>
+      <c r="D12" s="10">
+        <v>16520</v>
+      </c>
+      <c r="E12" s="1">
+        <v>5.9</v>
+      </c>
+      <c r="F12" s="1">
+        <v>489.3</v>
+      </c>
+      <c r="G12" s="1">
+        <v>0.64</v>
+      </c>
+      <c r="H12" s="1">
+        <v>3.49</v>
+      </c>
+      <c r="I12" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="J12" s="10">
+        <v>15</v>
+      </c>
+      <c r="K12" s="10">
+        <v>8481</v>
+      </c>
+      <c r="L12" s="1">
+        <v>0.51</v>
+      </c>
+      <c r="M12" s="10">
+        <v>1785</v>
+      </c>
+      <c r="N12" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="O12" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="P12" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q12" s="10">
+        <v>1220</v>
+      </c>
+      <c r="R12" s="10">
+        <v>660</v>
+      </c>
+      <c r="S12" s="1" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="B13" s="10">
+        <v>1110</v>
+      </c>
+      <c r="C13" s="10">
+        <v>13500</v>
+      </c>
+      <c r="D13" s="10">
+        <v>14610</v>
+      </c>
+      <c r="E13" s="1">
+        <v>3.4</v>
+      </c>
+      <c r="F13" s="1">
+        <v>199.5</v>
+      </c>
+      <c r="G13" s="1">
+        <v>0.33</v>
+      </c>
+      <c r="H13" s="1">
+        <v>1.61</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J13" s="10">
+        <v>15</v>
+      </c>
+      <c r="K13" s="10">
+        <v>6960</v>
+      </c>
+      <c r="L13" s="1">
+        <v>0.48</v>
+      </c>
+      <c r="M13" s="10">
+        <v>1811</v>
+      </c>
+      <c r="N13" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="O13" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="P13" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q13" s="10">
+        <v>910</v>
+      </c>
+      <c r="R13" s="10">
+        <v>300</v>
+      </c>
+      <c r="S13" s="1" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="19" t="s">
+        <v>133</v>
+      </c>
       <c r="B14" s="10">
-        <v>1020</v>
+        <v>1270</v>
       </c>
       <c r="C14" s="10">
-        <v>15500</v>
+        <v>11800</v>
       </c>
       <c r="D14" s="10">
-        <v>16520</v>
+        <v>13070</v>
       </c>
       <c r="E14" s="1">
-        <v>5.9</v>
+        <v>3.7</v>
       </c>
       <c r="F14" s="1">
-        <v>489.3</v>
+        <v>66.3</v>
       </c>
       <c r="G14" s="1">
-        <v>0.64</v>
+        <v>0.32</v>
       </c>
       <c r="H14" s="1">
-        <v>3.49</v>
+        <v>0.63</v>
       </c>
       <c r="I14" s="8" t="s">
         <v>2</v>
@@ -1864,13 +1966,13 @@
         <v>15</v>
       </c>
       <c r="K14" s="10">
-        <v>8481</v>
+        <v>3207</v>
       </c>
       <c r="L14" s="1">
-        <v>0.51</v>
+        <v>0.25</v>
       </c>
       <c r="M14" s="10">
-        <v>1785</v>
+        <v>1081</v>
       </c>
       <c r="N14" s="1" t="s">
         <v>55</v>
@@ -1882,54 +1984,54 @@
         <v>1</v>
       </c>
       <c r="Q14" s="10">
-        <v>1220</v>
+        <v>1440</v>
       </c>
       <c r="R14" s="10">
-        <v>660</v>
+        <v>590</v>
       </c>
       <c r="S14" s="1" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="15" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
-        <v>99</v>
+    <row r="15" spans="1:19" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="20" t="s">
+        <v>100</v>
       </c>
       <c r="B15" s="10">
-        <v>1110</v>
+        <v>1050</v>
       </c>
       <c r="C15" s="10">
-        <v>13500</v>
+        <v>6910</v>
       </c>
       <c r="D15" s="10">
-        <v>14610</v>
+        <v>7960</v>
       </c>
       <c r="E15" s="1">
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="F15" s="1">
-        <v>199.5</v>
+        <v>4.3</v>
       </c>
       <c r="G15" s="1">
+        <v>0.51</v>
+      </c>
+      <c r="H15" s="1">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J15" s="10">
+        <v>15</v>
+      </c>
+      <c r="K15" s="10">
+        <v>2589</v>
+      </c>
+      <c r="L15" s="1">
         <v>0.33</v>
       </c>
-      <c r="H15" s="1">
-        <v>1.61</v>
-      </c>
-      <c r="I15" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="J15" s="10">
-        <v>15</v>
-      </c>
-      <c r="K15" s="10">
-        <v>6960</v>
-      </c>
-      <c r="L15" s="1">
-        <v>0.48</v>
-      </c>
       <c r="M15" s="10">
-        <v>1811</v>
+        <v>1262</v>
       </c>
       <c r="N15" s="1" t="s">
         <v>55</v>
@@ -1944,51 +2046,51 @@
         <v>910</v>
       </c>
       <c r="R15" s="10">
-        <v>300</v>
+        <v>570</v>
       </c>
       <c r="S15" s="1" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="16" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="7" t="s">
-        <v>133</v>
+    <row r="16" spans="1:19" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="19" t="s">
+        <v>124</v>
       </c>
       <c r="B16" s="10">
-        <v>1270</v>
+        <v>550</v>
       </c>
       <c r="C16" s="10">
-        <v>11800</v>
+        <v>5910</v>
       </c>
       <c r="D16" s="10">
-        <v>13070</v>
+        <v>6460</v>
       </c>
       <c r="E16" s="1">
-        <v>3.7</v>
+        <v>1.6</v>
       </c>
       <c r="F16" s="1">
-        <v>66.3</v>
+        <v>78.8</v>
       </c>
       <c r="G16" s="1">
-        <v>0.32</v>
+        <v>0.31</v>
       </c>
       <c r="H16" s="1">
-        <v>0.63</v>
+        <v>1.45</v>
       </c>
       <c r="I16" s="8" t="s">
         <v>2</v>
       </c>
       <c r="J16" s="10">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="K16" s="10">
-        <v>3207</v>
+        <v>10157</v>
       </c>
       <c r="L16" s="1">
-        <v>0.25</v>
+        <v>1.57</v>
       </c>
       <c r="M16" s="10">
-        <v>1081</v>
+        <v>6898</v>
       </c>
       <c r="N16" s="1" t="s">
         <v>55</v>
@@ -1997,57 +2099,57 @@
         <v>0</v>
       </c>
       <c r="P16" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q16" s="10">
-        <v>1440</v>
+        <v>750</v>
       </c>
       <c r="R16" s="10">
-        <v>590</v>
+        <v>270</v>
       </c>
       <c r="S16" s="1" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="17" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
-        <v>100</v>
+    <row r="17" spans="1:19" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="20" t="s">
+        <v>121</v>
       </c>
       <c r="B17" s="10">
-        <v>1050</v>
+        <v>750</v>
       </c>
       <c r="C17" s="10">
-        <v>6910</v>
+        <v>5380</v>
       </c>
       <c r="D17" s="10">
-        <v>7960</v>
+        <v>6130</v>
       </c>
       <c r="E17" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F17" s="1">
-        <v>4.3</v>
+        <v>5.3</v>
       </c>
       <c r="G17" s="1">
-        <v>0.51</v>
+        <v>1.54</v>
       </c>
       <c r="H17" s="1">
-        <v>7.0000000000000007E-2</v>
+        <v>0.47</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>2</v>
+        <v>93</v>
       </c>
       <c r="J17" s="10">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="K17" s="10">
-        <v>2589</v>
+        <v>2300</v>
       </c>
       <c r="L17" s="1">
-        <v>0.33</v>
+        <v>0.38</v>
       </c>
       <c r="M17" s="10">
-        <v>1262</v>
+        <v>2868</v>
       </c>
       <c r="N17" s="1" t="s">
         <v>55</v>
@@ -2056,160 +2158,156 @@
         <v>0</v>
       </c>
       <c r="P17" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q17" s="10">
-        <v>910</v>
+        <v>90</v>
       </c>
       <c r="R17" s="10">
-        <v>570</v>
+        <v>80</v>
       </c>
       <c r="S17" s="1" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="18" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="7" t="s">
-        <v>124</v>
+    <row r="18" spans="1:19" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="20" t="s">
+        <v>137</v>
       </c>
       <c r="B18" s="10">
-        <v>550</v>
+        <v>590</v>
       </c>
       <c r="C18" s="10">
-        <v>5910</v>
+        <v>5070</v>
       </c>
       <c r="D18" s="10">
-        <v>6460</v>
+        <v>5660</v>
       </c>
       <c r="E18" s="1">
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
       <c r="F18" s="1">
-        <v>78.8</v>
+        <v>4.5</v>
       </c>
       <c r="G18" s="1">
-        <v>0.31</v>
+        <v>0.32</v>
       </c>
       <c r="H18" s="1">
-        <v>1.45</v>
-      </c>
-      <c r="I18" s="8" t="s">
-        <v>2</v>
+        <v>0.1</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="J18" s="10">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="K18" s="10">
-        <v>10157</v>
+        <v>1641</v>
       </c>
       <c r="L18" s="1">
-        <v>1.57</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="M18" s="10">
-        <v>6898</v>
+        <v>1434</v>
       </c>
       <c r="N18" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="O18" s="8" t="s">
+      <c r="O18" s="2" t="s">
         <v>0</v>
       </c>
       <c r="P18" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q18" s="10">
-        <v>750</v>
+        <v>780</v>
       </c>
       <c r="R18" s="10">
-        <v>270</v>
+        <v>590</v>
       </c>
       <c r="S18" s="1" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="19" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>121</v>
+    <row r="19" spans="1:19" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="19" t="s">
+        <v>131</v>
       </c>
       <c r="B19" s="10">
-        <v>750</v>
+        <v>620</v>
       </c>
       <c r="C19" s="10">
-        <v>5380</v>
+        <v>3960</v>
       </c>
       <c r="D19" s="10">
-        <v>6130</v>
+        <v>4580</v>
       </c>
       <c r="E19" s="1">
-        <v>1</v>
+        <v>1.8</v>
       </c>
       <c r="F19" s="1">
-        <v>5.3</v>
+        <v>51</v>
       </c>
       <c r="G19" s="1">
-        <v>1.54</v>
+        <v>0.32</v>
       </c>
       <c r="H19" s="1">
-        <v>0.47</v>
-      </c>
-      <c r="I19" s="2" t="s">
-        <v>93</v>
+        <v>1.43</v>
+      </c>
+      <c r="I19" s="8" t="s">
+        <v>2</v>
       </c>
       <c r="J19" s="10">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="K19" s="10">
-        <v>2300</v>
+        <v>12781</v>
       </c>
       <c r="L19" s="1">
-        <v>0.38</v>
+        <v>1.45</v>
       </c>
       <c r="M19" s="10">
-        <v>2868</v>
+        <v>8485</v>
       </c>
       <c r="N19" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="O19" s="2" t="s">
+      <c r="O19" s="8" t="s">
         <v>0</v>
       </c>
       <c r="P19" s="1">
-        <v>2</v>
-      </c>
-      <c r="Q19" s="10">
-        <v>90</v>
-      </c>
-      <c r="R19" s="10">
-        <v>80</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="Q19" s="10"/>
+      <c r="R19" s="10"/>
       <c r="S19" s="1" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="20" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
-        <v>137</v>
+    <row r="20" spans="1:19" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="20" t="s">
+        <v>138</v>
       </c>
       <c r="B20" s="10">
-        <v>590</v>
+        <v>250</v>
       </c>
       <c r="C20" s="10">
-        <v>5070</v>
+        <v>2410</v>
       </c>
       <c r="D20" s="10">
-        <v>5660</v>
+        <v>2660</v>
       </c>
       <c r="E20" s="1">
-        <v>1.8</v>
+        <v>0.1</v>
       </c>
       <c r="F20" s="1">
         <v>4.5</v>
       </c>
       <c r="G20" s="1">
-        <v>0.32</v>
+        <v>0.06</v>
       </c>
       <c r="H20" s="1">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="I20" s="2" t="s">
         <v>8</v>
@@ -2218,13 +2316,13 @@
         <v>15</v>
       </c>
       <c r="K20" s="10">
-        <v>1641</v>
+        <v>691</v>
       </c>
       <c r="L20" s="1">
-        <v>0.28999999999999998</v>
+        <v>0.26</v>
       </c>
       <c r="M20" s="10">
-        <v>1434</v>
+        <v>340</v>
       </c>
       <c r="N20" s="1" t="s">
         <v>55</v>
@@ -2236,94 +2334,98 @@
         <v>1</v>
       </c>
       <c r="Q20" s="10">
-        <v>780</v>
+        <v>1350</v>
       </c>
       <c r="R20" s="10">
-        <v>590</v>
+        <v>880</v>
       </c>
       <c r="S20" s="1" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="21" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="7" t="s">
-        <v>131</v>
+    <row r="21" spans="1:19" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="20" t="s">
+        <v>136</v>
       </c>
       <c r="B21" s="10">
-        <v>620</v>
+        <v>190</v>
       </c>
       <c r="C21" s="10">
-        <v>3960</v>
+        <v>1290</v>
       </c>
       <c r="D21" s="10">
-        <v>4580</v>
+        <v>1480</v>
       </c>
       <c r="E21" s="1">
-        <v>1.8</v>
+        <v>0.4</v>
       </c>
       <c r="F21" s="1">
-        <v>51</v>
+        <v>0.3</v>
       </c>
       <c r="G21" s="1">
-        <v>0.32</v>
+        <v>0.22</v>
       </c>
       <c r="H21" s="1">
-        <v>1.43</v>
-      </c>
-      <c r="I21" s="8" t="s">
-        <v>2</v>
+        <v>0.03</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="J21" s="10">
         <v>15</v>
       </c>
       <c r="K21" s="10">
-        <v>12781</v>
+        <v>4495</v>
       </c>
       <c r="L21" s="1">
-        <v>1.45</v>
+        <v>3.04</v>
       </c>
       <c r="M21" s="10">
-        <v>8485</v>
+        <v>1562</v>
       </c>
       <c r="N21" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="O21" s="8" t="s">
+      <c r="O21" s="2" t="s">
         <v>0</v>
       </c>
       <c r="P21" s="1">
         <v>1</v>
       </c>
-      <c r="Q21" s="10"/>
-      <c r="R21" s="10"/>
+      <c r="Q21" s="10">
+        <v>970</v>
+      </c>
+      <c r="R21" s="10">
+        <v>410</v>
+      </c>
       <c r="S21" s="1" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="22" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="1" t="s">
-        <v>138</v>
+    <row r="22" spans="1:19" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="20" t="s">
+        <v>97</v>
       </c>
       <c r="B22" s="10">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="C22" s="10">
-        <v>2410</v>
+        <v>940</v>
       </c>
       <c r="D22" s="10">
-        <v>2660</v>
+        <v>1100</v>
       </c>
       <c r="E22" s="1">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="F22" s="1">
-        <v>4.5</v>
+        <v>4.3</v>
       </c>
       <c r="G22" s="1">
-        <v>0.06</v>
+        <v>0.18</v>
       </c>
       <c r="H22" s="1">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="I22" s="2" t="s">
         <v>8</v>
@@ -2332,13 +2434,13 @@
         <v>15</v>
       </c>
       <c r="K22" s="10">
-        <v>691</v>
+        <v>2230</v>
       </c>
       <c r="L22" s="1">
-        <v>0.26</v>
+        <v>2.0299999999999998</v>
       </c>
       <c r="M22" s="10">
-        <v>340</v>
+        <v>1971</v>
       </c>
       <c r="N22" s="1" t="s">
         <v>55</v>
@@ -2350,342 +2452,526 @@
         <v>1</v>
       </c>
       <c r="Q22" s="10">
-        <v>1350</v>
+        <v>750</v>
       </c>
       <c r="R22" s="10">
-        <v>880</v>
+        <v>620</v>
       </c>
       <c r="S22" s="1" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="23" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="1" t="s">
-        <v>136</v>
+    <row r="23" spans="1:19" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="19" t="s">
+        <v>141</v>
       </c>
       <c r="B23" s="10">
-        <v>190</v>
+        <v>70</v>
       </c>
       <c r="C23" s="10">
-        <v>1290</v>
+        <v>1030</v>
       </c>
       <c r="D23" s="10">
-        <v>1480</v>
+        <v>1100</v>
       </c>
       <c r="E23" s="1">
-        <v>0.4</v>
+        <v>0.7</v>
       </c>
       <c r="F23" s="1">
-        <v>0.3</v>
+        <v>33.299999999999997</v>
       </c>
       <c r="G23" s="1">
-        <v>0.22</v>
+        <v>1.0900000000000001</v>
       </c>
       <c r="H23" s="1">
-        <v>0.03</v>
-      </c>
-      <c r="I23" s="2" t="s">
+        <v>3.46</v>
+      </c>
+      <c r="I23" s="8" t="s">
         <v>8</v>
       </c>
       <c r="J23" s="10">
         <v>15</v>
       </c>
       <c r="K23" s="10">
-        <v>4495</v>
+        <v>2569</v>
       </c>
       <c r="L23" s="1">
-        <v>3.04</v>
+        <v>2.34</v>
       </c>
       <c r="M23" s="10">
-        <v>1562</v>
+        <v>2519</v>
       </c>
       <c r="N23" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="O23" s="2" t="s">
+      <c r="O23" s="8" t="s">
         <v>0</v>
       </c>
       <c r="P23" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q23" s="10">
-        <v>970</v>
+        <v>700</v>
       </c>
       <c r="R23" s="10">
-        <v>410</v>
+        <v>480</v>
       </c>
       <c r="S23" s="1" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="24" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:19" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>97</v>
+        <v>125</v>
       </c>
       <c r="B24" s="10">
-        <v>160</v>
+        <v>290</v>
       </c>
       <c r="C24" s="10">
-        <v>940</v>
+        <v>400</v>
       </c>
       <c r="D24" s="10">
-        <v>1100</v>
+        <v>690</v>
       </c>
       <c r="E24" s="1">
         <v>0.3</v>
       </c>
       <c r="F24" s="1">
-        <v>4.3</v>
+        <v>0.3</v>
       </c>
       <c r="G24" s="1">
-        <v>0.18</v>
+        <v>0.12</v>
       </c>
       <c r="H24" s="1">
-        <v>0.5</v>
+        <v>0.09</v>
       </c>
       <c r="I24" s="2" t="s">
         <v>8</v>
       </c>
       <c r="J24" s="10">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="K24" s="10">
-        <v>2230</v>
+        <v>90</v>
       </c>
       <c r="L24" s="1">
-        <v>2.0299999999999998</v>
+        <v>0.13</v>
       </c>
       <c r="M24" s="10">
-        <v>1971</v>
+        <v>39572</v>
       </c>
       <c r="N24" s="1" t="s">
         <v>55</v>
       </c>
       <c r="O24" s="2" t="s">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="P24" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q24" s="10">
-        <v>750</v>
+        <v>360</v>
       </c>
       <c r="R24" s="10">
-        <v>620</v>
+        <v>290</v>
       </c>
       <c r="S24" s="1" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="25" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="7" t="s">
-        <v>141</v>
+        <v>199</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>95</v>
       </c>
       <c r="B25" s="10">
-        <v>70</v>
+        <v>130</v>
       </c>
       <c r="C25" s="10">
-        <v>1030</v>
+        <v>950</v>
       </c>
       <c r="D25" s="10">
-        <v>1100</v>
+        <v>1080</v>
       </c>
       <c r="E25" s="1">
-        <v>0.7</v>
+        <v>0.1</v>
       </c>
       <c r="F25" s="1">
-        <v>33.299999999999997</v>
+        <v>14.5</v>
       </c>
       <c r="G25" s="1">
-        <v>1.0900000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="H25" s="1">
-        <v>3.46</v>
-      </c>
-      <c r="I25" s="8" t="s">
+        <v>1.64</v>
+      </c>
+      <c r="I25" s="2" t="s">
         <v>8</v>
       </c>
       <c r="J25" s="10">
         <v>15</v>
       </c>
       <c r="K25" s="10">
-        <v>2569</v>
+        <v>5406</v>
       </c>
       <c r="L25" s="1">
-        <v>2.34</v>
+        <v>5.01</v>
       </c>
       <c r="M25" s="10">
-        <v>2519</v>
+        <v>2664</v>
       </c>
       <c r="N25" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="O25" s="8" t="s">
+      <c r="O25" s="2" t="s">
         <v>0</v>
       </c>
       <c r="P25" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q25" s="10">
+        <v>510</v>
+      </c>
+      <c r="R25" s="10">
+        <v>330</v>
+      </c>
+      <c r="S25" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B26" s="10">
+        <v>210</v>
+      </c>
+      <c r="C26" s="10">
+        <v>1970</v>
+      </c>
+      <c r="D26" s="10">
+        <v>2180</v>
+      </c>
+      <c r="E26" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="F26" s="1">
+        <v>1.3</v>
+      </c>
+      <c r="G26" s="1">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="H26" s="1">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="I26" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="Q25" s="10">
-        <v>700</v>
-      </c>
-      <c r="R25" s="10">
-        <v>480</v>
-      </c>
-      <c r="S25" s="1" t="s">
+      <c r="J26" s="10">
+        <v>14</v>
+      </c>
+      <c r="K26" s="10">
+        <v>10933</v>
+      </c>
+      <c r="L26" s="1">
+        <v>5.0199999999999996</v>
+      </c>
+      <c r="M26" s="10">
+        <v>928</v>
+      </c>
+      <c r="N26" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="O26" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="P26" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q26" s="10">
+        <v>860</v>
+      </c>
+      <c r="R26" s="10">
+        <v>250</v>
+      </c>
+      <c r="S26" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="26" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="7"/>
-      <c r="B26" s="10"/>
-      <c r="C26" s="10"/>
-      <c r="D26" s="10"/>
-      <c r="I26" s="8"/>
-      <c r="J26" s="10"/>
-      <c r="K26" s="10"/>
-      <c r="M26" s="10"/>
-      <c r="O26" s="8"/>
-      <c r="Q26" s="10"/>
-      <c r="R26" s="10"/>
-    </row>
-    <row r="27" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="7"/>
-      <c r="B27" s="10"/>
-      <c r="C27" s="10"/>
-      <c r="D27" s="10"/>
-      <c r="I27" s="8"/>
-      <c r="J27" s="10"/>
-      <c r="K27" s="10"/>
-      <c r="M27" s="10"/>
-      <c r="O27" s="8"/>
-      <c r="Q27" s="10"/>
-      <c r="R27" s="10"/>
-    </row>
-    <row r="28" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B27" s="10">
+        <v>780</v>
+      </c>
+      <c r="C27" s="10">
+        <v>7050</v>
+      </c>
+      <c r="D27" s="10">
+        <v>7830</v>
+      </c>
+      <c r="E27" s="1">
+        <v>4.5</v>
+      </c>
+      <c r="F27" s="1">
+        <v>181.5</v>
+      </c>
+      <c r="G27" s="1">
+        <v>0.63</v>
+      </c>
+      <c r="H27" s="1">
+        <v>2.71</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J27" s="10">
+        <v>15</v>
+      </c>
+      <c r="K27" s="10">
+        <v>51956</v>
+      </c>
+      <c r="L27" s="1">
+        <v>6.64</v>
+      </c>
+      <c r="M27" s="10">
+        <v>5655</v>
+      </c>
+      <c r="N27" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="O27" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="P27" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q27" s="10">
+        <v>1600</v>
+      </c>
+      <c r="R27" s="10">
+        <v>550</v>
+      </c>
+      <c r="S27" s="1" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="B28" s="10">
-        <v>290</v>
+        <v>140</v>
       </c>
       <c r="C28" s="10">
-        <v>400</v>
+        <v>790</v>
       </c>
       <c r="D28" s="10">
-        <v>690</v>
+        <v>930</v>
       </c>
       <c r="E28" s="1">
-        <v>0.3</v>
+        <v>0.7</v>
       </c>
       <c r="F28" s="1">
-        <v>0.3</v>
+        <v>23</v>
       </c>
       <c r="G28" s="1">
-        <v>0.12</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="H28" s="1">
-        <v>0.09</v>
+        <v>3.23</v>
       </c>
       <c r="I28" s="2" t="s">
         <v>8</v>
       </c>
       <c r="J28" s="10">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="K28" s="10">
-        <v>90</v>
+        <v>6234</v>
       </c>
       <c r="L28" s="1">
-        <v>0.13</v>
+        <v>6.7</v>
       </c>
       <c r="M28" s="10">
-        <v>39572</v>
+        <v>27574</v>
       </c>
       <c r="N28" s="1" t="s">
         <v>55</v>
       </c>
       <c r="O28" s="2" t="s">
-        <v>51</v>
+        <v>0</v>
       </c>
       <c r="P28" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q28" s="10">
-        <v>360</v>
+        <v>1700</v>
       </c>
       <c r="R28" s="10">
-        <v>290</v>
+        <v>1070</v>
       </c>
       <c r="S28" s="1" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="29" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="7"/>
-      <c r="B29" s="10"/>
-      <c r="C29" s="10"/>
-      <c r="D29" s="10"/>
-      <c r="I29" s="8"/>
-      <c r="J29" s="10"/>
-      <c r="K29" s="10"/>
-      <c r="M29" s="10"/>
-      <c r="O29" s="8"/>
-      <c r="Q29" s="10"/>
-      <c r="R29" s="10"/>
-    </row>
-    <row r="30" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="7"/>
-      <c r="B30" s="10"/>
-      <c r="C30" s="10"/>
-      <c r="D30" s="10"/>
-      <c r="I30" s="8"/>
-      <c r="J30" s="10"/>
-      <c r="K30" s="10"/>
-      <c r="M30" s="10"/>
-      <c r="O30" s="8"/>
-      <c r="Q30" s="10"/>
-      <c r="R30" s="10"/>
-    </row>
-    <row r="31" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="B29" s="10">
+        <v>250</v>
+      </c>
+      <c r="C29" s="10">
+        <v>1340</v>
+      </c>
+      <c r="D29" s="10">
+        <v>1590</v>
+      </c>
+      <c r="E29" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="F29" s="1">
+        <v>17.5</v>
+      </c>
+      <c r="G29" s="1">
+        <v>0.36</v>
+      </c>
+      <c r="H29" s="1">
+        <v>1.39</v>
+      </c>
+      <c r="I29" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="J29" s="10">
+        <v>15</v>
+      </c>
+      <c r="K29" s="10">
+        <v>10827</v>
+      </c>
+      <c r="L29" s="1">
+        <v>6.81</v>
+      </c>
+      <c r="M29" s="10">
+        <v>1451</v>
+      </c>
+      <c r="N29" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="O29" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="P29" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q29" s="10">
+        <v>1480</v>
+      </c>
+      <c r="R29" s="10">
+        <v>430</v>
+      </c>
+      <c r="S29" s="1" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B30" s="10">
+        <v>140</v>
+      </c>
+      <c r="C30" s="10">
+        <v>1060</v>
+      </c>
+      <c r="D30" s="10">
+        <v>1200</v>
+      </c>
+      <c r="E30" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="F30" s="1">
+        <v>1.3</v>
+      </c>
+      <c r="G30" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="H30" s="1">
+        <v>0.13</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J30" s="10">
+        <v>15</v>
+      </c>
+      <c r="K30" s="10">
+        <v>8680</v>
+      </c>
+      <c r="L30" s="1">
+        <v>7.23</v>
+      </c>
+      <c r="M30" s="10">
+        <v>2112</v>
+      </c>
+      <c r="N30" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="O30" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="P30" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q30" s="10">
+        <v>1150</v>
+      </c>
+      <c r="R30" s="10">
+        <v>590</v>
+      </c>
+      <c r="S30" s="1" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="B31" s="10">
-        <v>130</v>
+        <v>170</v>
       </c>
       <c r="C31" s="10">
-        <v>950</v>
+        <v>690</v>
       </c>
       <c r="D31" s="10">
-        <v>1080</v>
+        <v>860</v>
       </c>
       <c r="E31" s="1">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="F31" s="1">
-        <v>14.5</v>
+        <v>0</v>
       </c>
       <c r="G31" s="1">
-        <v>0.06</v>
+        <v>0.31</v>
       </c>
       <c r="H31" s="1">
-        <v>1.64</v>
+        <v>0</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="J31" s="10">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="K31" s="10">
-        <v>5406</v>
+        <v>7701</v>
       </c>
       <c r="L31" s="1">
-        <v>5.01</v>
+        <v>8.9499999999999993</v>
       </c>
       <c r="M31" s="10">
-        <v>2664</v>
+        <v>6560</v>
       </c>
       <c r="N31" s="1" t="s">
         <v>55</v>
@@ -2697,54 +2983,54 @@
         <v>1</v>
       </c>
       <c r="Q31" s="10">
-        <v>510</v>
+        <v>850</v>
       </c>
       <c r="R31" s="10">
-        <v>330</v>
+        <v>440</v>
       </c>
       <c r="S31" s="1" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>143</v>
+        <v>119</v>
       </c>
       <c r="B32" s="10">
-        <v>210</v>
+        <v>190</v>
       </c>
       <c r="C32" s="10">
-        <v>1970</v>
+        <v>1500</v>
       </c>
       <c r="D32" s="10">
-        <v>2180</v>
+        <v>1690</v>
       </c>
       <c r="E32" s="1">
-        <v>0.6</v>
+        <v>1.9</v>
       </c>
       <c r="F32" s="1">
-        <v>1.3</v>
+        <v>1.8</v>
       </c>
       <c r="G32" s="1">
-        <v>0.28000000000000003</v>
+        <v>1.06</v>
       </c>
       <c r="H32" s="1">
-        <v>7.0000000000000007E-2</v>
+        <v>0.13</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="J32" s="10">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K32" s="10">
-        <v>10933</v>
+        <v>17703</v>
       </c>
       <c r="L32" s="1">
-        <v>5.0199999999999996</v>
+        <v>10.48</v>
       </c>
       <c r="M32" s="10">
-        <v>928</v>
+        <v>1471</v>
       </c>
       <c r="N32" s="1" t="s">
         <v>55</v>
@@ -2753,57 +3039,57 @@
         <v>0</v>
       </c>
       <c r="P32" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q32" s="10">
-        <v>860</v>
+        <v>1530</v>
       </c>
       <c r="R32" s="10">
-        <v>250</v>
-      </c>
-      <c r="S32" t="s">
+        <v>480</v>
+      </c>
+      <c r="S32" s="1" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
-        <v>113</v>
+        <v>129</v>
       </c>
       <c r="B33" s="10">
-        <v>780</v>
+        <v>60</v>
       </c>
       <c r="C33" s="10">
-        <v>7050</v>
+        <v>450</v>
       </c>
       <c r="D33" s="10">
-        <v>7830</v>
+        <v>510</v>
       </c>
       <c r="E33" s="1">
-        <v>4.5</v>
+        <v>0.4</v>
       </c>
       <c r="F33" s="1">
-        <v>181.5</v>
+        <v>7.8</v>
       </c>
       <c r="G33" s="1">
-        <v>0.63</v>
+        <v>0.73</v>
       </c>
       <c r="H33" s="1">
-        <v>2.71</v>
+        <v>1.96</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="J33" s="10">
         <v>15</v>
       </c>
       <c r="K33" s="10">
-        <v>51956</v>
+        <v>6234</v>
       </c>
       <c r="L33" s="1">
-        <v>6.64</v>
+        <v>12.22</v>
       </c>
       <c r="M33" s="10">
-        <v>5655</v>
+        <v>32385</v>
       </c>
       <c r="N33" s="1" t="s">
         <v>55</v>
@@ -2812,57 +3098,57 @@
         <v>0</v>
       </c>
       <c r="P33" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q33" s="10">
+        <v>1440</v>
+      </c>
+      <c r="R33" s="10">
+        <v>1360</v>
+      </c>
+      <c r="S33" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B34" s="10">
+        <v>70</v>
+      </c>
+      <c r="C34" s="10">
+        <v>390</v>
+      </c>
+      <c r="D34" s="10">
+        <v>460</v>
+      </c>
+      <c r="E34" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="F34" s="1">
+        <v>1.8</v>
+      </c>
+      <c r="G34" s="1">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="H34" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="I34" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="Q33" s="10">
-        <v>1600</v>
-      </c>
-      <c r="R33" s="10">
-        <v>550</v>
-      </c>
-      <c r="S33" s="1" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A34" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="B34" s="10">
-        <v>140</v>
-      </c>
-      <c r="C34" s="10">
-        <v>790</v>
-      </c>
-      <c r="D34" s="10">
-        <v>930</v>
-      </c>
-      <c r="E34" s="1">
-        <v>0.7</v>
-      </c>
-      <c r="F34" s="1">
-        <v>23</v>
-      </c>
-      <c r="G34" s="1">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="H34" s="1">
-        <v>3.23</v>
-      </c>
-      <c r="I34" s="2" t="s">
-        <v>8</v>
-      </c>
       <c r="J34" s="10">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="K34" s="10">
-        <v>6234</v>
+        <v>7138</v>
       </c>
       <c r="L34" s="1">
-        <v>6.7</v>
+        <v>15.52</v>
       </c>
       <c r="M34" s="10">
-        <v>27574</v>
+        <v>17141</v>
       </c>
       <c r="N34" s="1" t="s">
         <v>55</v>
@@ -2874,98 +3160,98 @@
         <v>1</v>
       </c>
       <c r="Q34" s="10">
-        <v>1700</v>
+        <v>490</v>
       </c>
       <c r="R34" s="10">
-        <v>1070</v>
+        <v>550</v>
       </c>
       <c r="S34" s="1" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A35" s="7" t="s">
-        <v>142</v>
+        <v>199</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="1" t="s">
+        <v>120</v>
       </c>
       <c r="B35" s="10">
-        <v>250</v>
+        <v>130</v>
       </c>
       <c r="C35" s="10">
-        <v>1340</v>
+        <v>1050</v>
       </c>
       <c r="D35" s="10">
-        <v>1590</v>
+        <v>1180</v>
       </c>
       <c r="E35" s="1">
-        <v>0.9</v>
+        <v>0.1</v>
       </c>
       <c r="F35" s="1">
-        <v>17.5</v>
+        <v>13.8</v>
       </c>
       <c r="G35" s="1">
-        <v>0.36</v>
+        <v>0.12</v>
       </c>
       <c r="H35" s="1">
-        <v>1.39</v>
-      </c>
-      <c r="I35" s="8" t="s">
-        <v>2</v>
+        <v>1.44</v>
+      </c>
+      <c r="I35" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="J35" s="10">
         <v>15</v>
       </c>
       <c r="K35" s="10">
-        <v>10827</v>
+        <v>37690</v>
       </c>
       <c r="L35" s="1">
-        <v>6.81</v>
+        <v>31.94</v>
       </c>
       <c r="M35" s="10">
-        <v>1451</v>
+        <v>11588</v>
       </c>
       <c r="N35" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="O35" s="8" t="s">
+      <c r="O35" s="2" t="s">
         <v>0</v>
       </c>
       <c r="P35" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q35" s="10">
-        <v>1480</v>
+        <v>1790</v>
       </c>
       <c r="R35" s="10">
-        <v>430</v>
+        <v>770</v>
       </c>
       <c r="S35" s="1" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.3">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
-        <v>134</v>
+        <v>110</v>
       </c>
       <c r="B36" s="10">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="C36" s="10">
-        <v>1060</v>
+        <v>450</v>
       </c>
       <c r="D36" s="10">
-        <v>1200</v>
+        <v>580</v>
       </c>
       <c r="E36" s="1">
-        <v>0.1</v>
+        <v>1.5</v>
       </c>
       <c r="F36" s="1">
-        <v>1.3</v>
+        <v>3.8</v>
       </c>
       <c r="G36" s="1">
-        <v>0.1</v>
+        <v>1.23</v>
       </c>
       <c r="H36" s="1">
-        <v>0.13</v>
+        <v>0.9</v>
       </c>
       <c r="I36" s="2" t="s">
         <v>8</v>
@@ -2974,13 +3260,13 @@
         <v>15</v>
       </c>
       <c r="K36" s="10">
-        <v>8680</v>
+        <v>20444</v>
       </c>
       <c r="L36" s="1">
-        <v>7.23</v>
+        <v>35.25</v>
       </c>
       <c r="M36" s="10">
-        <v>2112</v>
+        <v>3573</v>
       </c>
       <c r="N36" s="1" t="s">
         <v>55</v>
@@ -2989,57 +3275,57 @@
         <v>0</v>
       </c>
       <c r="P36" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q36" s="10">
-        <v>1150</v>
+        <v>410</v>
       </c>
       <c r="R36" s="10">
-        <v>590</v>
+        <v>200</v>
       </c>
       <c r="S36" s="1" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="B37" s="10">
-        <v>170</v>
+        <v>100</v>
       </c>
       <c r="C37" s="10">
-        <v>690</v>
+        <v>790</v>
       </c>
       <c r="D37" s="10">
-        <v>860</v>
+        <v>890</v>
       </c>
       <c r="E37" s="1">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="F37" s="1">
-        <v>0</v>
+        <v>15.8</v>
       </c>
       <c r="G37" s="1">
-        <v>0.31</v>
+        <v>0.82</v>
       </c>
       <c r="H37" s="1">
-        <v>0</v>
+        <v>2.2200000000000002</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="J37" s="10">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="K37" s="10">
-        <v>7701</v>
+        <v>37981</v>
       </c>
       <c r="L37" s="1">
-        <v>8.9499999999999993</v>
+        <v>42.68</v>
       </c>
       <c r="M37" s="10">
-        <v>6560</v>
+        <v>12148</v>
       </c>
       <c r="N37" s="1" t="s">
         <v>55</v>
@@ -3051,36 +3337,37 @@
         <v>1</v>
       </c>
       <c r="Q37" s="10">
-        <v>850</v>
+        <v>1490</v>
       </c>
       <c r="R37" s="10">
-        <v>440</v>
+        <v>1380</v>
       </c>
       <c r="S37" s="1" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B38" s="10">
-        <v>190</v>
+        <v>40</v>
       </c>
       <c r="C38" s="10">
-        <v>1500</v>
+        <v>290</v>
       </c>
       <c r="D38" s="10">
-        <v>1690</v>
+        <f t="shared" ref="D38" si="1">B38+C38</f>
+        <v>330</v>
       </c>
       <c r="E38" s="1">
-        <v>1.9</v>
+        <v>0</v>
       </c>
       <c r="F38" s="1">
-        <v>1.8</v>
+        <v>0.3</v>
       </c>
       <c r="G38" s="1">
-        <v>1.06</v>
+        <v>0</v>
       </c>
       <c r="H38" s="1">
         <v>0.13</v>
@@ -3089,16 +3376,16 @@
         <v>8</v>
       </c>
       <c r="J38" s="10">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="K38" s="10">
-        <v>17703</v>
+        <v>22517</v>
       </c>
       <c r="L38" s="1">
-        <v>10.48</v>
+        <v>68.23</v>
       </c>
       <c r="M38" s="10">
-        <v>1471</v>
+        <v>17674</v>
       </c>
       <c r="N38" s="1" t="s">
         <v>55</v>
@@ -3107,42 +3394,42 @@
         <v>0</v>
       </c>
       <c r="P38" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q38" s="10">
-        <v>1530</v>
+        <v>840</v>
       </c>
       <c r="R38" s="10">
-        <v>480</v>
+        <v>320</v>
       </c>
       <c r="S38" s="1" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.3">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="B39" s="10">
-        <v>60</v>
+        <v>110</v>
       </c>
       <c r="C39" s="10">
-        <v>450</v>
+        <v>800</v>
       </c>
       <c r="D39" s="10">
-        <v>510</v>
+        <v>910</v>
       </c>
       <c r="E39" s="1">
-        <v>0.4</v>
+        <v>1.3</v>
       </c>
       <c r="F39" s="1">
-        <v>7.8</v>
+        <v>14.3</v>
       </c>
       <c r="G39" s="1">
-        <v>0.73</v>
+        <v>1.26</v>
       </c>
       <c r="H39" s="1">
-        <v>1.96</v>
+        <v>1.91</v>
       </c>
       <c r="I39" s="2" t="s">
         <v>8</v>
@@ -3151,13 +3438,13 @@
         <v>15</v>
       </c>
       <c r="K39" s="10">
-        <v>6234</v>
+        <v>46536</v>
       </c>
       <c r="L39" s="1">
-        <v>12.22</v>
+        <v>51.14</v>
       </c>
       <c r="M39" s="10">
-        <v>32385</v>
+        <v>2249</v>
       </c>
       <c r="N39" s="1" t="s">
         <v>55</v>
@@ -3169,98 +3456,98 @@
         <v>1</v>
       </c>
       <c r="Q39" s="10">
-        <v>1440</v>
+        <v>2070</v>
       </c>
       <c r="R39" s="10">
-        <v>1360</v>
+        <v>540</v>
       </c>
       <c r="S39" s="1" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A40" s="1" t="s">
-        <v>61</v>
+        <v>197</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="7" t="s">
+        <v>114</v>
       </c>
       <c r="B40" s="10">
-        <v>70</v>
+        <v>170</v>
       </c>
       <c r="C40" s="10">
-        <v>390</v>
+        <v>840</v>
       </c>
       <c r="D40" s="10">
-        <v>460</v>
+        <v>1010</v>
       </c>
       <c r="E40" s="1">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="F40" s="1">
-        <v>1.8</v>
+        <v>1</v>
       </c>
       <c r="G40" s="1">
-        <v>0.56999999999999995</v>
+        <v>0.31</v>
       </c>
       <c r="H40" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="I40" s="2" t="s">
-        <v>2</v>
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="I40" s="8" t="s">
+        <v>8</v>
       </c>
       <c r="J40" s="10">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="K40" s="10">
-        <v>7138</v>
+        <v>53224</v>
       </c>
       <c r="L40" s="1">
-        <v>15.52</v>
+        <v>52.7</v>
       </c>
       <c r="M40" s="10">
-        <v>17141</v>
+        <v>2974</v>
       </c>
       <c r="N40" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="O40" s="2" t="s">
+      <c r="O40" s="8" t="s">
         <v>0</v>
       </c>
       <c r="P40" s="1">
         <v>1</v>
       </c>
       <c r="Q40" s="10">
-        <v>490</v>
+        <v>1540</v>
       </c>
       <c r="R40" s="10">
-        <v>550</v>
+        <v>1270</v>
       </c>
       <c r="S40" s="1" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.3">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="B41" s="10">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="C41" s="10">
-        <v>1050</v>
+        <v>1180</v>
       </c>
       <c r="D41" s="10">
-        <v>1180</v>
+        <v>1330</v>
       </c>
       <c r="E41" s="1">
-        <v>0.1</v>
+        <v>0.7</v>
       </c>
       <c r="F41" s="1">
-        <v>13.8</v>
+        <v>22.8</v>
       </c>
       <c r="G41" s="1">
-        <v>0.12</v>
+        <v>0.45</v>
       </c>
       <c r="H41" s="1">
-        <v>1.44</v>
+        <v>2.0699999999999998</v>
       </c>
       <c r="I41" s="2" t="s">
         <v>8</v>
@@ -3269,13 +3556,13 @@
         <v>15</v>
       </c>
       <c r="K41" s="10">
-        <v>37690</v>
+        <v>66801</v>
       </c>
       <c r="L41" s="1">
-        <v>31.94</v>
+        <v>50.23</v>
       </c>
       <c r="M41" s="10">
-        <v>11588</v>
+        <v>20122</v>
       </c>
       <c r="N41" s="1" t="s">
         <v>55</v>
@@ -3287,54 +3574,54 @@
         <v>1</v>
       </c>
       <c r="Q41" s="10">
-        <v>1790</v>
+        <v>1530</v>
       </c>
       <c r="R41" s="10">
-        <v>770</v>
+        <v>610</v>
       </c>
       <c r="S41" s="1" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.3">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="42" spans="1:19" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
-        <v>110</v>
+        <v>122</v>
       </c>
       <c r="B42" s="10">
-        <v>130</v>
+        <v>200</v>
       </c>
       <c r="C42" s="10">
-        <v>450</v>
+        <v>1360</v>
       </c>
       <c r="D42" s="10">
-        <v>580</v>
+        <v>1560</v>
       </c>
       <c r="E42" s="1">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="F42" s="1">
-        <v>3.8</v>
+        <v>35.799999999999997</v>
       </c>
       <c r="G42" s="1">
-        <v>1.23</v>
+        <v>1.38</v>
       </c>
       <c r="H42" s="1">
-        <v>0.9</v>
+        <v>2.92</v>
       </c>
       <c r="I42" s="2" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="J42" s="10">
         <v>15</v>
       </c>
       <c r="K42" s="10">
-        <v>20444</v>
+        <v>95418</v>
       </c>
       <c r="L42" s="1">
-        <v>35.25</v>
+        <v>61.17</v>
       </c>
       <c r="M42" s="10">
-        <v>3573</v>
+        <v>3791</v>
       </c>
       <c r="N42" s="1" t="s">
         <v>55</v>
@@ -3343,42 +3630,42 @@
         <v>0</v>
       </c>
       <c r="P42" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q42" s="10">
-        <v>410</v>
+        <v>1220</v>
       </c>
       <c r="R42" s="10">
-        <v>200</v>
+        <v>450</v>
       </c>
       <c r="S42" s="1" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:19" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="B43" s="10">
-        <v>100</v>
+        <v>170</v>
       </c>
       <c r="C43" s="10">
-        <v>790</v>
+        <v>1080</v>
       </c>
       <c r="D43" s="10">
-        <v>890</v>
+        <v>1250</v>
       </c>
       <c r="E43" s="1">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="F43" s="1">
-        <v>15.8</v>
+        <v>22.3</v>
       </c>
       <c r="G43" s="1">
-        <v>0.82</v>
+        <v>0.61</v>
       </c>
       <c r="H43" s="1">
-        <v>2.2200000000000002</v>
+        <v>2.1800000000000002</v>
       </c>
       <c r="I43" s="2" t="s">
         <v>8</v>
@@ -3387,13 +3674,13 @@
         <v>15</v>
       </c>
       <c r="K43" s="10">
-        <v>37981</v>
+        <v>95418</v>
       </c>
       <c r="L43" s="1">
-        <v>42.68</v>
+        <v>76.33</v>
       </c>
       <c r="M43" s="10">
-        <v>12148</v>
+        <v>3262</v>
       </c>
       <c r="N43" s="1" t="s">
         <v>55</v>
@@ -3405,54 +3692,54 @@
         <v>1</v>
       </c>
       <c r="Q43" s="10">
-        <v>1490</v>
+        <v>1420</v>
       </c>
       <c r="R43" s="10">
-        <v>1380</v>
+        <v>520</v>
       </c>
       <c r="S43" s="1" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.3">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="44" spans="1:19" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
-        <v>118</v>
+        <v>145</v>
       </c>
       <c r="B44" s="10">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="C44" s="10">
-        <v>460</v>
+        <v>610</v>
       </c>
       <c r="D44" s="10">
-        <v>520</v>
+        <v>760</v>
       </c>
       <c r="E44" s="1">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="F44" s="1">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="G44" s="1">
-        <v>0</v>
+        <v>0.19</v>
       </c>
       <c r="H44" s="1">
-        <v>0</v>
+        <v>0.09</v>
       </c>
       <c r="I44" s="2" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="J44" s="10">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="K44" s="10">
-        <v>24898</v>
+        <v>105803</v>
       </c>
       <c r="L44" s="1">
-        <v>47.88</v>
+        <v>139.21</v>
       </c>
       <c r="M44" s="10">
-        <v>17674</v>
+        <v>15980</v>
       </c>
       <c r="N44" s="1" t="s">
         <v>55</v>
@@ -3461,42 +3748,42 @@
         <v>0</v>
       </c>
       <c r="P44" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q44" s="10">
-        <v>840</v>
+        <v>1820</v>
       </c>
       <c r="R44" s="10">
-        <v>320</v>
+        <v>650</v>
       </c>
       <c r="S44" s="1" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.3">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="45" spans="1:19" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="B45" s="10">
-        <v>110</v>
+        <v>260</v>
       </c>
       <c r="C45" s="10">
-        <v>800</v>
+        <v>1060</v>
       </c>
       <c r="D45" s="10">
-        <v>910</v>
+        <v>1320</v>
       </c>
       <c r="E45" s="1">
-        <v>1.3</v>
+        <v>0.4</v>
       </c>
       <c r="F45" s="1">
-        <v>14.3</v>
+        <v>0.7</v>
       </c>
       <c r="G45" s="1">
-        <v>1.26</v>
+        <v>0.17</v>
       </c>
       <c r="H45" s="1">
-        <v>1.91</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="I45" s="2" t="s">
         <v>8</v>
@@ -3505,13 +3792,13 @@
         <v>15</v>
       </c>
       <c r="K45" s="10">
-        <v>46536</v>
+        <v>105827</v>
       </c>
       <c r="L45" s="1">
-        <v>51.14</v>
+        <v>80.17</v>
       </c>
       <c r="M45" s="10">
-        <v>2249</v>
+        <v>17754</v>
       </c>
       <c r="N45" s="1" t="s">
         <v>55</v>
@@ -3523,54 +3810,54 @@
         <v>1</v>
       </c>
       <c r="Q45" s="10">
-        <v>2070</v>
+        <v>1020</v>
       </c>
       <c r="R45" s="10">
-        <v>540</v>
+        <v>520</v>
       </c>
       <c r="S45" s="1" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.3">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="46" spans="1:19" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A46" s="7" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
       <c r="B46" s="10">
-        <v>170</v>
+        <v>11800</v>
       </c>
       <c r="C46" s="10">
-        <v>840</v>
+        <v>59200</v>
       </c>
       <c r="D46" s="10">
-        <v>1010</v>
+        <v>71000</v>
       </c>
       <c r="E46" s="1">
-        <v>0.5</v>
+        <v>5.9</v>
       </c>
       <c r="F46" s="1">
-        <v>1</v>
+        <v>155.30000000000001</v>
       </c>
       <c r="G46" s="1">
-        <v>0.31</v>
+        <v>0.06</v>
       </c>
       <c r="H46" s="1">
-        <v>0.14000000000000001</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="I46" s="8" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="J46" s="10">
         <v>15</v>
       </c>
       <c r="K46" s="10">
-        <v>53224</v>
+        <v>107188</v>
       </c>
       <c r="L46" s="1">
-        <v>52.7</v>
+        <v>1.51</v>
       </c>
       <c r="M46" s="10">
-        <v>2974</v>
+        <v>47353</v>
       </c>
       <c r="N46" s="1" t="s">
         <v>55</v>
@@ -3579,57 +3866,175 @@
         <v>0</v>
       </c>
       <c r="P46" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q46" s="10">
-        <v>1540</v>
+        <v>1510</v>
       </c>
       <c r="R46" s="10">
-        <v>1270</v>
+        <v>890</v>
       </c>
       <c r="S46" s="1" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="49" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:19" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B47" s="10">
+        <v>7520</v>
+      </c>
+      <c r="C47" s="10">
+        <v>46500</v>
+      </c>
+      <c r="D47" s="10">
+        <v>54020</v>
+      </c>
+      <c r="E47" s="1">
+        <v>18</v>
+      </c>
+      <c r="F47" s="1">
+        <v>488.7</v>
+      </c>
+      <c r="G47" s="1">
+        <v>0.26</v>
+      </c>
+      <c r="H47" s="1">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="I47" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J47" s="10">
+        <v>15</v>
+      </c>
+      <c r="K47" s="10">
+        <v>111453</v>
+      </c>
+      <c r="L47" s="1">
+        <v>2.06</v>
+      </c>
+      <c r="M47" s="10">
+        <v>70577</v>
+      </c>
+      <c r="N47" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="O47" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="P47" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q47" s="10">
+        <v>5390</v>
+      </c>
+      <c r="R47" s="10">
+        <v>1600</v>
+      </c>
+      <c r="S47" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="48" spans="1:19" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B48" s="10">
+        <v>390</v>
+      </c>
+      <c r="C48" s="10">
+        <v>3020</v>
+      </c>
+      <c r="D48" s="10">
+        <v>3410</v>
+      </c>
+      <c r="E48" s="1">
+        <v>1.7</v>
+      </c>
+      <c r="F48" s="1">
+        <v>36.799999999999997</v>
+      </c>
+      <c r="G48" s="1">
+        <v>0.46</v>
+      </c>
+      <c r="H48" s="1">
+        <v>1.33</v>
+      </c>
+      <c r="I48" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J48" s="10">
+        <v>15</v>
+      </c>
+      <c r="K48" s="10">
+        <v>111474</v>
+      </c>
+      <c r="L48" s="1">
+        <v>32.69</v>
+      </c>
+      <c r="M48" s="10">
+        <v>12717</v>
+      </c>
+      <c r="N48" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="O48" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="P48" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q48" s="10">
+        <v>1710</v>
+      </c>
+      <c r="R48" s="10">
+        <v>1340</v>
+      </c>
+      <c r="S48" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="49" spans="1:19" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
-        <v>128</v>
+        <v>59</v>
       </c>
       <c r="B49" s="10">
-        <v>150</v>
+        <v>480</v>
       </c>
       <c r="C49" s="10">
-        <v>1180</v>
+        <v>1460</v>
       </c>
       <c r="D49" s="10">
-        <v>1330</v>
+        <v>1940</v>
       </c>
       <c r="E49" s="1">
-        <v>0.7</v>
+        <v>1.4</v>
       </c>
       <c r="F49" s="1">
-        <v>22.8</v>
+        <v>25.3</v>
       </c>
       <c r="G49" s="1">
-        <v>0.45</v>
+        <v>0.33</v>
       </c>
       <c r="H49" s="1">
-        <v>2.0699999999999998</v>
+        <v>1.88</v>
       </c>
       <c r="I49" s="2" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="J49" s="10">
         <v>15</v>
       </c>
       <c r="K49" s="10">
-        <v>66801</v>
+        <v>111497</v>
       </c>
       <c r="L49" s="1">
-        <v>50.23</v>
+        <v>57.47</v>
       </c>
       <c r="M49" s="10">
-        <v>20122</v>
+        <v>26190</v>
       </c>
       <c r="N49" s="1" t="s">
         <v>55</v>
@@ -3641,39 +4046,39 @@
         <v>1</v>
       </c>
       <c r="Q49" s="10">
-        <v>1530</v>
+        <v>2580</v>
       </c>
       <c r="R49" s="10">
-        <v>610</v>
+        <v>1620</v>
       </c>
       <c r="S49" s="1" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="50" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.3">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="50" spans="1:19" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
-        <v>122</v>
+        <v>139</v>
       </c>
       <c r="B50" s="10">
-        <v>200</v>
+        <v>2390</v>
       </c>
       <c r="C50" s="10">
-        <v>1360</v>
+        <v>27400</v>
       </c>
       <c r="D50" s="10">
-        <v>1560</v>
+        <v>29790</v>
       </c>
       <c r="E50" s="1">
-        <v>2.5</v>
+        <v>14.2</v>
       </c>
       <c r="F50" s="1">
-        <v>35.799999999999997</v>
+        <v>633</v>
       </c>
       <c r="G50" s="1">
-        <v>1.38</v>
+        <v>0.63</v>
       </c>
       <c r="H50" s="1">
-        <v>2.92</v>
+        <v>2.4700000000000002</v>
       </c>
       <c r="I50" s="2" t="s">
         <v>2</v>
@@ -3682,13 +4087,13 @@
         <v>15</v>
       </c>
       <c r="K50" s="10">
-        <v>95418</v>
+        <v>112029</v>
       </c>
       <c r="L50" s="1">
-        <v>61.17</v>
+        <v>3.76</v>
       </c>
       <c r="M50" s="10">
-        <v>3791</v>
+        <v>7408</v>
       </c>
       <c r="N50" s="1" t="s">
         <v>55</v>
@@ -3700,54 +4105,54 @@
         <v>1</v>
       </c>
       <c r="Q50" s="10">
-        <v>1220</v>
+        <v>2030</v>
       </c>
       <c r="R50" s="10">
-        <v>450</v>
+        <v>1140</v>
       </c>
       <c r="S50" s="1" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="51" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:19" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
-        <v>123</v>
+        <v>140</v>
       </c>
       <c r="B51" s="10">
-        <v>170</v>
+        <v>580</v>
       </c>
       <c r="C51" s="10">
-        <v>1080</v>
+        <v>3550</v>
       </c>
       <c r="D51" s="10">
-        <v>1250</v>
+        <v>4130</v>
       </c>
       <c r="E51" s="1">
-        <v>1</v>
+        <v>1.8</v>
       </c>
       <c r="F51" s="1">
-        <v>22.3</v>
+        <v>24</v>
       </c>
       <c r="G51" s="1">
-        <v>0.61</v>
+        <v>0.33</v>
       </c>
       <c r="H51" s="1">
-        <v>2.1800000000000002</v>
+        <v>0.72</v>
       </c>
       <c r="I51" s="2" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="J51" s="10">
         <v>15</v>
       </c>
       <c r="K51" s="10">
-        <v>95418</v>
+        <v>112044</v>
       </c>
       <c r="L51" s="1">
-        <v>76.33</v>
+        <v>27.13</v>
       </c>
       <c r="M51" s="10">
-        <v>3262</v>
+        <v>8408</v>
       </c>
       <c r="N51" s="1" t="s">
         <v>55</v>
@@ -3759,54 +4164,54 @@
         <v>1</v>
       </c>
       <c r="Q51" s="10">
-        <v>1420</v>
+        <v>1210</v>
       </c>
       <c r="R51" s="10">
-        <v>520</v>
+        <v>640</v>
       </c>
       <c r="S51" s="1" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="52" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:19" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
-        <v>145</v>
+        <v>94</v>
       </c>
       <c r="B52" s="10">
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="C52" s="10">
-        <v>610</v>
+        <v>510</v>
       </c>
       <c r="D52" s="10">
-        <v>760</v>
+        <v>640</v>
       </c>
       <c r="E52" s="1">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="F52" s="1">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="G52" s="1">
-        <v>0.19</v>
+        <v>0.16</v>
       </c>
       <c r="H52" s="1">
-        <v>0.09</v>
+        <v>0</v>
       </c>
       <c r="I52" s="2" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="J52" s="10">
         <v>15</v>
       </c>
       <c r="K52" s="10">
-        <v>105803</v>
+        <v>124261</v>
       </c>
       <c r="L52" s="1">
-        <v>139.21</v>
+        <v>194.16</v>
       </c>
       <c r="M52" s="10">
-        <v>15980</v>
+        <v>16611</v>
       </c>
       <c r="N52" s="1" t="s">
         <v>55</v>
@@ -3818,39 +4223,39 @@
         <v>1</v>
       </c>
       <c r="Q52" s="10">
-        <v>1820</v>
+        <v>1930</v>
       </c>
       <c r="R52" s="10">
-        <v>650</v>
+        <v>890</v>
       </c>
       <c r="S52" s="1" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="53" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:19" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
-        <v>146</v>
+        <v>56</v>
       </c>
       <c r="B53" s="10">
-        <v>260</v>
+        <v>1730</v>
       </c>
       <c r="C53" s="10">
-        <v>1060</v>
+        <v>14800</v>
       </c>
       <c r="D53" s="10">
-        <v>1320</v>
+        <v>16530</v>
       </c>
       <c r="E53" s="1">
-        <v>0.4</v>
+        <v>10.1</v>
       </c>
       <c r="F53" s="1">
-        <v>0.7</v>
+        <v>234</v>
       </c>
       <c r="G53" s="1">
-        <v>0.17</v>
+        <v>0.62</v>
       </c>
       <c r="H53" s="1">
-        <v>7.0000000000000007E-2</v>
+        <v>1.69</v>
       </c>
       <c r="I53" s="2" t="s">
         <v>8</v>
@@ -3859,13 +4264,13 @@
         <v>15</v>
       </c>
       <c r="K53" s="10">
-        <v>105827</v>
+        <v>124371</v>
       </c>
       <c r="L53" s="1">
-        <v>80.17</v>
+        <v>7.52</v>
       </c>
       <c r="M53" s="10">
-        <v>17754</v>
+        <v>23433</v>
       </c>
       <c r="N53" s="1" t="s">
         <v>55</v>
@@ -3877,39 +4282,39 @@
         <v>1</v>
       </c>
       <c r="Q53" s="10">
-        <v>1020</v>
+        <v>3150</v>
       </c>
       <c r="R53" s="10">
-        <v>520</v>
+        <v>2330</v>
       </c>
       <c r="S53" s="1" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="54" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:19" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A54" s="7" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B54" s="10">
-        <v>11800</v>
+        <v>1200</v>
       </c>
       <c r="C54" s="10">
-        <v>59200</v>
+        <v>2490</v>
       </c>
       <c r="D54" s="10">
-        <v>71000</v>
+        <v>3690</v>
       </c>
       <c r="E54" s="1">
-        <v>5.9</v>
+        <v>0.3</v>
       </c>
       <c r="F54" s="1">
-        <v>155.30000000000001</v>
+        <v>0.3</v>
       </c>
       <c r="G54" s="1">
-        <v>0.06</v>
+        <v>0.03</v>
       </c>
       <c r="H54" s="1">
-        <v>0.28000000000000003</v>
+        <v>0.02</v>
       </c>
       <c r="I54" s="8" t="s">
         <v>2</v>
@@ -3918,13 +4323,13 @@
         <v>15</v>
       </c>
       <c r="K54" s="10">
-        <v>107188</v>
+        <v>124620</v>
       </c>
       <c r="L54" s="1">
-        <v>1.51</v>
+        <v>33.770000000000003</v>
       </c>
       <c r="M54" s="10">
-        <v>47353</v>
+        <v>186551</v>
       </c>
       <c r="N54" s="1" t="s">
         <v>55</v>
@@ -3933,57 +4338,57 @@
         <v>0</v>
       </c>
       <c r="P54" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q54" s="10">
-        <v>1510</v>
+        <v>1270</v>
       </c>
       <c r="R54" s="10">
-        <v>890</v>
+        <v>460</v>
       </c>
       <c r="S54" s="1" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="55" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="55" spans="1:19" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
-        <v>103</v>
+        <v>127</v>
       </c>
       <c r="B55" s="10">
-        <v>7520</v>
+        <v>220</v>
       </c>
       <c r="C55" s="10">
-        <v>46500</v>
+        <v>540</v>
       </c>
       <c r="D55" s="10">
-        <v>54020</v>
+        <v>760</v>
       </c>
       <c r="E55" s="1">
-        <v>18</v>
+        <v>0.7</v>
       </c>
       <c r="F55" s="1">
-        <v>488.7</v>
+        <v>1.5</v>
       </c>
       <c r="G55" s="1">
-        <v>0.26</v>
+        <v>0.32</v>
       </c>
       <c r="H55" s="1">
-        <v>1.1299999999999999</v>
+        <v>0.3</v>
       </c>
       <c r="I55" s="2" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="J55" s="10">
         <v>15</v>
       </c>
       <c r="K55" s="10">
-        <v>111453</v>
+        <v>129572</v>
       </c>
       <c r="L55" s="1">
-        <v>2.06</v>
+        <v>170.49</v>
       </c>
       <c r="M55" s="10">
-        <v>70577</v>
+        <v>87872</v>
       </c>
       <c r="N55" s="1" t="s">
         <v>55</v>
@@ -3992,57 +4397,57 @@
         <v>0</v>
       </c>
       <c r="P55" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q55" s="10">
-        <v>5390</v>
+        <v>840</v>
       </c>
       <c r="R55" s="10">
-        <v>1600</v>
+        <v>390</v>
       </c>
       <c r="S55" s="1" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="56" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.3">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="56" spans="1:19" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
-        <v>60</v>
+        <v>107</v>
       </c>
       <c r="B56" s="10">
-        <v>390</v>
+        <v>140</v>
       </c>
       <c r="C56" s="10">
-        <v>3020</v>
+        <v>700</v>
       </c>
       <c r="D56" s="10">
-        <v>3410</v>
+        <v>840</v>
       </c>
       <c r="E56" s="1">
-        <v>1.7</v>
+        <v>0.4</v>
       </c>
       <c r="F56" s="1">
-        <v>36.799999999999997</v>
+        <v>8.5</v>
       </c>
       <c r="G56" s="1">
-        <v>0.46</v>
+        <v>0.32</v>
       </c>
       <c r="H56" s="1">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="I56" s="2" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="J56" s="10">
         <v>15</v>
       </c>
       <c r="K56" s="10">
-        <v>111474</v>
+        <v>135478</v>
       </c>
       <c r="L56" s="1">
-        <v>32.69</v>
+        <v>161.28</v>
       </c>
       <c r="M56" s="10">
-        <v>12717</v>
+        <v>2257</v>
       </c>
       <c r="N56" s="1" t="s">
         <v>55</v>
@@ -4051,42 +4456,42 @@
         <v>0</v>
       </c>
       <c r="P56" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q56" s="10">
-        <v>1710</v>
+        <v>3210</v>
       </c>
       <c r="R56" s="10">
-        <v>1340</v>
+        <v>840</v>
       </c>
       <c r="S56" s="1" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="57" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:19" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
-        <v>59</v>
+        <v>132</v>
       </c>
       <c r="B57" s="10">
-        <v>480</v>
+        <v>5160</v>
       </c>
       <c r="C57" s="10">
-        <v>1460</v>
+        <v>17700</v>
       </c>
       <c r="D57" s="10">
-        <v>1940</v>
+        <v>22860</v>
       </c>
       <c r="E57" s="1">
-        <v>1.4</v>
+        <v>6.6</v>
       </c>
       <c r="F57" s="1">
-        <v>25.3</v>
+        <v>129.5</v>
       </c>
       <c r="G57" s="1">
-        <v>0.33</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="H57" s="1">
-        <v>1.88</v>
+        <v>0.78</v>
       </c>
       <c r="I57" s="2" t="s">
         <v>2</v>
@@ -4095,13 +4500,13 @@
         <v>15</v>
       </c>
       <c r="K57" s="10">
-        <v>111497</v>
+        <v>148452</v>
       </c>
       <c r="L57" s="1">
-        <v>57.47</v>
+        <v>6.49</v>
       </c>
       <c r="M57" s="10">
-        <v>26190</v>
+        <v>55790</v>
       </c>
       <c r="N57" s="1" t="s">
         <v>55</v>
@@ -4110,57 +4515,57 @@
         <v>0</v>
       </c>
       <c r="P57" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q57" s="10">
-        <v>2580</v>
+        <v>1480</v>
       </c>
       <c r="R57" s="10">
-        <v>1620</v>
+        <v>920</v>
       </c>
       <c r="S57" s="1" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="58" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.3">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="58" spans="1:19" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
-        <v>139</v>
+        <v>96</v>
       </c>
       <c r="B58" s="10">
-        <v>2390</v>
+        <v>200</v>
       </c>
       <c r="C58" s="10">
-        <v>27400</v>
+        <v>640</v>
       </c>
       <c r="D58" s="10">
-        <v>29790</v>
+        <v>840</v>
       </c>
       <c r="E58" s="1">
-        <v>14.2</v>
+        <v>1</v>
       </c>
       <c r="F58" s="1">
-        <v>633</v>
+        <v>6</v>
       </c>
       <c r="G58" s="1">
-        <v>0.63</v>
+        <v>0.51</v>
       </c>
       <c r="H58" s="1">
-        <v>2.4700000000000002</v>
+        <v>0.98</v>
       </c>
       <c r="I58" s="2" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="J58" s="10">
         <v>15</v>
       </c>
       <c r="K58" s="10">
-        <v>112029</v>
+        <v>249051</v>
       </c>
       <c r="L58" s="1">
-        <v>3.76</v>
+        <v>296.49</v>
       </c>
       <c r="M58" s="10">
-        <v>7408</v>
+        <v>105865</v>
       </c>
       <c r="N58" s="1" t="s">
         <v>55</v>
@@ -4172,54 +4577,54 @@
         <v>1</v>
       </c>
       <c r="Q58" s="10">
-        <v>2030</v>
+        <v>1600</v>
       </c>
       <c r="R58" s="10">
-        <v>1140</v>
+        <v>860</v>
       </c>
       <c r="S58" s="1" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="59" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="59" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
-        <v>140</v>
+        <v>108</v>
       </c>
       <c r="B59" s="10">
-        <v>580</v>
+        <v>500</v>
       </c>
       <c r="C59" s="10">
-        <v>3550</v>
+        <v>1710</v>
       </c>
       <c r="D59" s="10">
-        <v>4130</v>
+        <v>2210</v>
       </c>
       <c r="E59" s="1">
-        <v>1.8</v>
+        <v>3.6</v>
       </c>
       <c r="F59" s="1">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G59" s="1">
-        <v>0.33</v>
+        <v>0.77</v>
       </c>
       <c r="H59" s="1">
-        <v>0.72</v>
+        <v>1.4</v>
       </c>
       <c r="I59" s="2" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="J59" s="10">
         <v>15</v>
       </c>
       <c r="K59" s="10">
-        <v>112044</v>
+        <v>514842</v>
       </c>
       <c r="L59" s="1">
-        <v>27.13</v>
+        <v>232.96</v>
       </c>
       <c r="M59" s="10">
-        <v>8408</v>
+        <v>32974</v>
       </c>
       <c r="N59" s="1" t="s">
         <v>55</v>
@@ -4231,54 +4636,54 @@
         <v>1</v>
       </c>
       <c r="Q59" s="10">
-        <v>1210</v>
+        <v>4050</v>
       </c>
       <c r="R59" s="10">
-        <v>640</v>
+        <v>2420</v>
       </c>
       <c r="S59" s="1" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="60" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="60" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
-        <v>94</v>
+        <v>109</v>
       </c>
       <c r="B60" s="10">
-        <v>130</v>
+        <v>1240</v>
       </c>
       <c r="C60" s="10">
-        <v>510</v>
+        <v>3970</v>
       </c>
       <c r="D60" s="10">
-        <v>640</v>
+        <v>5210</v>
       </c>
       <c r="E60" s="1">
-        <v>0.2</v>
+        <v>7.1</v>
       </c>
       <c r="F60" s="1">
-        <v>0</v>
+        <v>40.5</v>
       </c>
       <c r="G60" s="1">
-        <v>0.16</v>
+        <v>0.61</v>
       </c>
       <c r="H60" s="1">
-        <v>0</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="I60" s="2" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="J60" s="10">
         <v>15</v>
       </c>
       <c r="K60" s="10">
-        <v>124261</v>
+        <v>514842</v>
       </c>
       <c r="L60" s="1">
-        <v>194.16</v>
+        <v>98.82</v>
       </c>
       <c r="M60" s="10">
-        <v>16611</v>
+        <v>5743</v>
       </c>
       <c r="N60" s="1" t="s">
         <v>55</v>
@@ -4290,488 +4695,23 @@
         <v>1</v>
       </c>
       <c r="Q60" s="10">
-        <v>1930</v>
+        <v>4430</v>
       </c>
       <c r="R60" s="10">
-        <v>890</v>
+        <v>2420</v>
       </c>
       <c r="S60" s="1" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="61" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B61" s="10">
-        <v>1730</v>
-      </c>
-      <c r="C61" s="10">
-        <v>14800</v>
-      </c>
-      <c r="D61" s="10">
-        <v>16530</v>
-      </c>
-      <c r="E61" s="1">
-        <v>10.1</v>
-      </c>
-      <c r="F61" s="1">
-        <v>234</v>
-      </c>
-      <c r="G61" s="1">
-        <v>0.62</v>
-      </c>
-      <c r="H61" s="1">
-        <v>1.69</v>
-      </c>
-      <c r="I61" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="J61" s="10">
-        <v>15</v>
-      </c>
-      <c r="K61" s="10">
-        <v>124371</v>
-      </c>
-      <c r="L61" s="1">
-        <v>7.52</v>
-      </c>
-      <c r="M61" s="10">
-        <v>23433</v>
-      </c>
-      <c r="N61" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="O61" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="P61" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q61" s="10">
-        <v>3150</v>
-      </c>
-      <c r="R61" s="10">
-        <v>2330</v>
-      </c>
-      <c r="S61" s="1" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="62" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="B62" s="10">
-        <v>1200</v>
-      </c>
-      <c r="C62" s="10">
-        <v>2490</v>
-      </c>
-      <c r="D62" s="10">
-        <v>3690</v>
-      </c>
-      <c r="E62" s="1">
-        <v>0.3</v>
-      </c>
-      <c r="F62" s="1">
-        <v>0.3</v>
-      </c>
-      <c r="G62" s="1">
-        <v>0.03</v>
-      </c>
-      <c r="H62" s="1">
-        <v>0.02</v>
-      </c>
-      <c r="I62" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="J62" s="10">
-        <v>15</v>
-      </c>
-      <c r="K62" s="10">
-        <v>124620</v>
-      </c>
-      <c r="L62" s="1">
-        <v>33.770000000000003</v>
-      </c>
-      <c r="M62" s="10">
-        <v>186551</v>
-      </c>
-      <c r="N62" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="O62" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="P62" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q62" s="10">
-        <v>1270</v>
-      </c>
-      <c r="R62" s="10">
-        <v>460</v>
-      </c>
-      <c r="S62" s="1" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="63" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="B63" s="10">
-        <v>220</v>
-      </c>
-      <c r="C63" s="10">
-        <v>540</v>
-      </c>
-      <c r="D63" s="10">
-        <v>760</v>
-      </c>
-      <c r="E63" s="1">
-        <v>0.7</v>
-      </c>
-      <c r="F63" s="1">
-        <v>1.5</v>
-      </c>
-      <c r="G63" s="1">
-        <v>0.32</v>
-      </c>
-      <c r="H63" s="1">
-        <v>0.3</v>
-      </c>
-      <c r="I63" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="J63" s="10">
-        <v>15</v>
-      </c>
-      <c r="K63" s="10">
-        <v>129572</v>
-      </c>
-      <c r="L63" s="1">
-        <v>170.49</v>
-      </c>
-      <c r="M63" s="10">
-        <v>87872</v>
-      </c>
-      <c r="N63" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="O63" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="P63" s="1">
-        <v>3</v>
-      </c>
-      <c r="Q63" s="10">
-        <v>840</v>
-      </c>
-      <c r="R63" s="10">
-        <v>390</v>
-      </c>
-      <c r="S63" s="1" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="64" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="B64" s="10">
-        <v>140</v>
-      </c>
-      <c r="C64" s="10">
-        <v>700</v>
-      </c>
-      <c r="D64" s="10">
-        <v>840</v>
-      </c>
-      <c r="E64" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="F64" s="1">
-        <v>8.5</v>
-      </c>
-      <c r="G64" s="1">
-        <v>0.32</v>
-      </c>
-      <c r="H64" s="1">
-        <v>1.29</v>
-      </c>
-      <c r="I64" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="J64" s="10">
-        <v>15</v>
-      </c>
-      <c r="K64" s="10">
-        <v>135478</v>
-      </c>
-      <c r="L64" s="1">
-        <v>161.28</v>
-      </c>
-      <c r="M64" s="10">
-        <v>2257</v>
-      </c>
-      <c r="N64" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="O64" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="P64" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q64" s="10">
-        <v>3210</v>
-      </c>
-      <c r="R64" s="10">
-        <v>840</v>
-      </c>
-      <c r="S64" s="1" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="65" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="B65" s="10">
-        <v>5160</v>
-      </c>
-      <c r="C65" s="10">
-        <v>17700</v>
-      </c>
-      <c r="D65" s="10">
-        <v>22860</v>
-      </c>
-      <c r="E65" s="1">
-        <v>6.6</v>
-      </c>
-      <c r="F65" s="1">
-        <v>129.5</v>
-      </c>
-      <c r="G65" s="1">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="H65" s="1">
-        <v>0.78</v>
-      </c>
-      <c r="I65" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="J65" s="10">
-        <v>15</v>
-      </c>
-      <c r="K65" s="10">
-        <v>148452</v>
-      </c>
-      <c r="L65" s="1">
-        <v>6.49</v>
-      </c>
-      <c r="M65" s="10">
-        <v>55790</v>
-      </c>
-      <c r="N65" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="O65" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="P65" s="1">
-        <v>2</v>
-      </c>
-      <c r="Q65" s="10">
-        <v>1480</v>
-      </c>
-      <c r="R65" s="10">
-        <v>920</v>
-      </c>
-      <c r="S65" s="1" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="66" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="B66" s="10">
         <v>200</v>
       </c>
-      <c r="C66" s="10">
-        <v>640</v>
-      </c>
-      <c r="D66" s="10">
-        <v>840</v>
-      </c>
-      <c r="E66" s="1">
-        <v>1</v>
-      </c>
-      <c r="F66" s="1">
-        <v>6</v>
-      </c>
-      <c r="G66" s="1">
-        <v>0.51</v>
-      </c>
-      <c r="H66" s="1">
-        <v>0.98</v>
-      </c>
-      <c r="I66" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="J66" s="10">
-        <v>15</v>
-      </c>
-      <c r="K66" s="10">
-        <v>249051</v>
-      </c>
-      <c r="L66" s="1">
-        <v>296.49</v>
-      </c>
-      <c r="M66" s="10">
-        <v>105865</v>
-      </c>
-      <c r="N66" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="O66" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="P66" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q66" s="10">
-        <v>1600</v>
-      </c>
-      <c r="R66" s="10">
-        <v>860</v>
-      </c>
-      <c r="S66" s="1" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="67" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A67" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="B67" s="10">
-        <v>500</v>
-      </c>
-      <c r="C67" s="10">
-        <v>1710</v>
-      </c>
-      <c r="D67" s="10">
-        <v>2210</v>
-      </c>
-      <c r="E67" s="1">
-        <v>3.6</v>
-      </c>
-      <c r="F67" s="1">
-        <v>22</v>
-      </c>
-      <c r="G67" s="1">
-        <v>0.77</v>
-      </c>
-      <c r="H67" s="1">
-        <v>1.4</v>
-      </c>
-      <c r="I67" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="J67" s="10">
-        <v>15</v>
-      </c>
-      <c r="K67" s="10">
-        <v>514842</v>
-      </c>
-      <c r="L67" s="1">
-        <v>232.96</v>
-      </c>
-      <c r="M67" s="10">
-        <v>32974</v>
-      </c>
-      <c r="N67" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="O67" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="P67" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q67" s="10">
-        <v>4050</v>
-      </c>
-      <c r="R67" s="10">
-        <v>2420</v>
-      </c>
-      <c r="S67" s="1" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="68" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A68" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="B68" s="10">
-        <v>1240</v>
-      </c>
-      <c r="C68" s="10">
-        <v>3970</v>
-      </c>
-      <c r="D68" s="10">
-        <v>5210</v>
-      </c>
-      <c r="E68" s="1">
-        <v>7.1</v>
-      </c>
-      <c r="F68" s="1">
-        <v>40.5</v>
-      </c>
-      <c r="G68" s="1">
-        <v>0.61</v>
-      </c>
-      <c r="H68" s="1">
-        <v>1.1100000000000001</v>
-      </c>
-      <c r="I68" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="J68" s="10">
-        <v>15</v>
-      </c>
-      <c r="K68" s="10">
-        <v>514842</v>
-      </c>
-      <c r="L68" s="1">
-        <v>98.82</v>
-      </c>
-      <c r="M68" s="10">
-        <v>5743</v>
-      </c>
-      <c r="N68" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="O68" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="P68" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q68" s="10">
-        <v>4430</v>
-      </c>
-      <c r="R68" s="10">
-        <v>2420</v>
-      </c>
-      <c r="S68" s="1" t="s">
-        <v>201</v>
-      </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:S60" xr:uid="{C033F5F1-45A7-48CA-B21A-07994D2D8CF7}">
+    <filterColumn colId="18">
+      <filters>
+        <filter val="블루키워드"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:S11">
     <sortCondition descending="1" ref="D2:D11"/>
   </sortState>
